--- a/exceljs/text.xlsx
+++ b/exceljs/text.xlsx
@@ -238,7 +238,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A1:C6"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -274,13 +274,13 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -291,13 +291,13 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -308,13 +308,13 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="0" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="0" t="s">
         <v>16</v>
       </c>
     </row>
@@ -325,13 +325,13 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="0" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -342,29 +342,17 @@
       <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="0" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="0" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="s1@s.com"/>
-    <hyperlink ref="E2" r:id="rId2" display="abc@abc.com"/>
-    <hyperlink ref="C3" r:id="rId3" display="s2@s.com"/>
-    <hyperlink ref="E3" r:id="rId4" display="xyz@xyz.com"/>
-    <hyperlink ref="C4" r:id="rId5" display="s3@s.com"/>
-    <hyperlink ref="E4" r:id="rId6" display="pqr@pqr.com"/>
-    <hyperlink ref="C5" r:id="rId7" display="s4@s.com"/>
-    <hyperlink ref="E5" r:id="rId8" display="abc@abc.com"/>
-    <hyperlink ref="C6" r:id="rId9" display="s5@s.com"/>
-    <hyperlink ref="E6" r:id="rId10" display="nmo@nmo.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -383,7 +371,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:C6"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -458,13 +446,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="t1@t.com"/>
-    <hyperlink ref="C3" r:id="rId2" display="t2@t.com"/>
-    <hyperlink ref="C4" r:id="rId3" display="t3@t.com"/>
-    <hyperlink ref="C5" r:id="rId4" display="t4@t.com"/>
-    <hyperlink ref="C6" r:id="rId5" display="t5@t.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
